--- a/Practical3/threadmetrics.xlsx
+++ b/Practical3/threadmetrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="2700" windowWidth="10300" windowHeight="14040" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1540" windowWidth="24540" windowHeight="10900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Start Val</t>
   </si>
@@ -49,12 +49,57 @@
   </si>
   <si>
     <t>desiredaccess</t>
+  </si>
+  <si>
+    <t>srcfile</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>servicename</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>creationdistribution</t>
+  </si>
+  <si>
+    <t>shareaccess</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>owned</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>tokenhandle</t>
+  </si>
+  <si>
+    <t>showwindow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -84,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,122 +463,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D2" s="1">
         <f>C2-B2</f>
-        <v>7.2999999999999982E-2</v>
+        <v>0.23000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="C3">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">C3-B3</f>
-        <v>1.9000000000000017E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3-B3</f>
+        <v>8.9999999999999969E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.23000000000000004</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4-B4</f>
+        <v>7.2999999999999982E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="C5">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000016E-2</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5-B5</f>
+        <v>6.0000000000000053E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="C6">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000011E-2</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6-B6</f>
+        <v>2.7000000000000024E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7-B7</f>
+        <v>1.9000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8-B8</f>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C9-B9</f>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10-B10</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11-B11</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B12" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <f>C12-B12</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C13-B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14-B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15-B15</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.56100000000000005</v>
       </c>
-      <c r="C7">
+      <c r="C16" s="1">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="D16" s="1">
+        <f>C16-B16</f>
         <v>-2.300000000000002E-2</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:D22">
+    <sortCondition descending="1" ref="D2:D22"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
